--- a/data/trans_dic/P1401-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1401-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01829900866802058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.029342021326452</v>
+        <v>0.02934202132645199</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02849038074760661</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01030373928065571</v>
+        <v>0.009890041268289114</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0101853921554446</v>
+        <v>0.01000527837754118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01957429178208498</v>
+        <v>0.01979861172738115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02011307606976405</v>
+        <v>0.01990592966491884</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01783252459722201</v>
+        <v>0.01783646148741353</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03410767919649966</v>
+        <v>0.03389783252629076</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01828108997410902</v>
+        <v>0.01820860492444957</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01690435126322463</v>
+        <v>0.01694824198916698</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03072480636868644</v>
+        <v>0.03030279952024115</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02946268961299001</v>
+        <v>0.02865665780680223</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02901591785661095</v>
+        <v>0.02915261809164722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04510463944281957</v>
+        <v>0.04239079318898327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03868971994019198</v>
+        <v>0.03954547563935262</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04104672093103701</v>
+        <v>0.04067389232439482</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05531866399720945</v>
+        <v>0.0554085808421145</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0316990374914941</v>
+        <v>0.03190672010114611</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03312584494636605</v>
+        <v>0.031738707880316</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04680661962902107</v>
+        <v>0.04658889841587822</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.01291345545097023</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01790981545955296</v>
+        <v>0.01790981545955295</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.01308419536276163</v>
@@ -773,7 +773,7 @@
         <v>0.009580857826283876</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.01771181153857423</v>
+        <v>0.01771181153857424</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006088514808078915</v>
+        <v>0.005530893703369761</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003512878705028262</v>
+        <v>0.003539421307182424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01330551822069002</v>
+        <v>0.01244241856894067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01108770523724903</v>
+        <v>0.01089424364262725</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008514241270053673</v>
+        <v>0.008615016885094631</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01385056201770345</v>
+        <v>0.01399485492335014</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0096486137502902</v>
+        <v>0.009096436792975443</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006903886617273512</v>
+        <v>0.006762272741896412</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01454772233348995</v>
+        <v>0.01463117795538858</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01590728233418398</v>
+        <v>0.01616500388254301</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01072478308561072</v>
+        <v>0.01066094831357386</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02417728583077237</v>
+        <v>0.02283797798952554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02441208103286233</v>
+        <v>0.02415999408048689</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01934180618705177</v>
+        <v>0.01935431452327655</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02285449482367302</v>
+        <v>0.02244535236871686</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01738494643925024</v>
+        <v>0.01725381071803772</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01346119957195926</v>
+        <v>0.01337691850986652</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02166046950951261</v>
+        <v>0.0212649469800618</v>
       </c>
     </row>
     <row r="10">
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001341679018457258</v>
+        <v>0.001331673209668881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01710616626334063</v>
+        <v>0.01706344261877956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002268916091619777</v>
+        <v>0.002238991467931851</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01874038839911952</v>
+        <v>0.01920265668730611</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008301224912352757</v>
+        <v>0.008977722068178557</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00310111932718044</v>
+        <v>0.002462786784104502</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01145614684170002</v>
+        <v>0.01160810495388791</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01459191700064604</v>
+        <v>0.01465702531450624</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01553018859348501</v>
+        <v>0.0136155023764854</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01459203431181798</v>
+        <v>0.01329660797731006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03923556366716521</v>
+        <v>0.03964857016701148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02387931537369666</v>
+        <v>0.02358464194003681</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05214431857624761</v>
+        <v>0.05252996558425406</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02269315462505306</v>
+        <v>0.02309998957362515</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0145803899943121</v>
+        <v>0.01515575885144694</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02920451417553588</v>
+        <v>0.02864870069725569</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02747820535373816</v>
+        <v>0.02820027245053104</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007898083766522212</v>
+        <v>0.008397456784908722</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006147158277806015</v>
+        <v>0.005855079626892952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01674554001134682</v>
+        <v>0.01730459374302904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01580863575613793</v>
+        <v>0.01523480320951421</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01545848435026411</v>
+        <v>0.01546377207294796</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0192141009576108</v>
+        <v>0.01922795945241109</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01307411993848261</v>
+        <v>0.01320096118694991</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01172798012033362</v>
+        <v>0.01201194124454766</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01929503917926498</v>
+        <v>0.01911959085414115</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0156760018457049</v>
+        <v>0.01602187298881028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01194862975753141</v>
+        <v>0.01244002102630008</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02574216129875232</v>
+        <v>0.02642424529703868</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02550682819124786</v>
+        <v>0.02549463441824392</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02538432002216714</v>
+        <v>0.02565610637868524</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02647055590854857</v>
+        <v>0.02642595085257518</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01952766160110488</v>
+        <v>0.01957135007902902</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01763875373951194</v>
+        <v>0.01804682154782878</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02500251850056379</v>
+        <v>0.02488793854227589</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10042</v>
+        <v>9639</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7683</v>
+        <v>7547</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11273</v>
+        <v>11403</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26907</v>
+        <v>26630</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17737</v>
+        <v>17741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27964</v>
+        <v>27792</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>42274</v>
+        <v>42106</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29566</v>
+        <v>29643</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>42886</v>
+        <v>42297</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28716</v>
+        <v>27930</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21888</v>
+        <v>21991</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25977</v>
+        <v>24414</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51759</v>
+        <v>52904</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40828</v>
+        <v>40457</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45355</v>
+        <v>45428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>73302</v>
+        <v>73782</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57937</v>
+        <v>55511</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65333</v>
+        <v>65029</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11958</v>
+        <v>10862</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7294</v>
+        <v>7349</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29625</v>
+        <v>27704</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19454</v>
+        <v>19115</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16929</v>
+        <v>17129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30022</v>
+        <v>30335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35879</v>
+        <v>33826</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28062</v>
+        <v>27487</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>63924</v>
+        <v>64291</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31241</v>
+        <v>31747</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22269</v>
+        <v>22136</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53832</v>
+        <v>50850</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>42833</v>
+        <v>42391</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38457</v>
+        <v>38482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49539</v>
+        <v>48652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64647</v>
+        <v>64159</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54716</v>
+        <v>54373</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>95179</v>
+        <v>93441</v>
       </c>
     </row>
     <row r="12">
@@ -1580,28 +1580,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12153</v>
+        <v>12123</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10291</v>
+        <v>10545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6100</v>
+        <v>6598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2914</v>
+        <v>2315</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12556</v>
+        <v>12723</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21090</v>
+        <v>21184</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7473</v>
+        <v>6552</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7980</v>
+        <v>7272</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27875</v>
+        <v>28169</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10952</v>
+        <v>10817</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28635</v>
+        <v>28846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16677</v>
+        <v>16976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13703</v>
+        <v>14244</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32009</v>
+        <v>31400</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39715</v>
+        <v>40759</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27010</v>
+        <v>28717</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20763</v>
+        <v>19776</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>58826</v>
+        <v>60790</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>56137</v>
+        <v>54099</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54601</v>
+        <v>54620</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>71521</v>
+        <v>71573</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>91137</v>
+        <v>92021</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>81037</v>
+        <v>82999</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>139605</v>
+        <v>138335</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>53609</v>
+        <v>54791</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40358</v>
+        <v>42018</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90430</v>
+        <v>92826</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90575</v>
+        <v>90532</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>89660</v>
+        <v>90620</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>98533</v>
+        <v>98366</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>136123</v>
+        <v>136428</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121879</v>
+        <v>124698</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>180900</v>
+        <v>180071</v>
       </c>
     </row>
     <row r="20">
